--- a/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2022/46_Kastamonu_2022.xlsx
+++ b/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2022/46_Kastamonu_2022.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="BuÇalışmaKitabı" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\Yazılarım\İllere Göre Tahsilat Tahakkuk (Yıllara Göre)\İllere Göre Tahsilat Tahakkuk 2022\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\İllere Göre Tahsilat Tahakkuk 2022\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AF21C144-DA89-4B57-853B-13C1AADAA4BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9E965A19-1832-4C28-A71C-04F212D9BE6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8544" yWindow="6144" windowWidth="6528" windowHeight="5280" tabRatio="684" xr2:uid="{220898A0-E5B6-42FE-8A95-D9D25AD913F6}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="684" xr2:uid="{F0387A64-8E35-4016-8F00-073B49D87253}"/>
   </bookViews>
   <sheets>
     <sheet name="ARALIK " sheetId="113" r:id="rId1"/>
@@ -974,13 +974,13 @@
   <cellStyles count="9">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="2" xr:uid="{691CF74C-5192-462B-AFF0-DC244E20DF76}"/>
-    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{C648024C-4FF4-4A11-A48D-DD1355285727}"/>
-    <cellStyle name="Normal 3" xfId="4" xr:uid="{6ED9CA13-87F8-4745-A4DC-B86A57026C41}"/>
-    <cellStyle name="Normal_genel_gelir_det3" xfId="5" xr:uid="{9C4A9926-88A9-49E3-98AC-D72AF61BA677}"/>
-    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="6" xr:uid="{FACB4DE7-92EA-4639-96FD-41CD78F322BA}"/>
-    <cellStyle name="Not 2" xfId="7" xr:uid="{3C7E3DDF-A3BF-4CAA-96E8-3628C5030225}"/>
-    <cellStyle name="Virgül [0]_29dan32ye" xfId="8" xr:uid="{F09306A0-BCBC-4DE8-A116-79310E550613}"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{20F691A4-C49D-4DFD-8D70-D06E989175DB}"/>
+    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{127608CB-AEFE-4A0C-BF08-80775B4AC564}"/>
+    <cellStyle name="Normal 3" xfId="4" xr:uid="{D361CD98-246E-49FA-94CA-E7E38A1AEBF5}"/>
+    <cellStyle name="Normal_genel_gelir_det3" xfId="5" xr:uid="{EE7321A8-016C-4398-A300-1924444A1B1F}"/>
+    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="6" xr:uid="{BC49457C-A0C9-4A48-800C-5B56CA8443C0}"/>
+    <cellStyle name="Not 2" xfId="7" xr:uid="{4FD0E80D-1D58-4B18-9AE1-567E47F9B388}"/>
+    <cellStyle name="Virgül [0]_29dan32ye" xfId="8" xr:uid="{14FDCC0E-D5E7-494F-86EB-E37014997734}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1350,7 +1350,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{986832DE-780F-4EDF-B9C6-D61DEF2FF942}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B11B0AB3-C8F0-4284-8E32-258F2849084C}">
   <dimension ref="B2:F106"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -2616,17 +2616,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{C6ADBEB6-B54D-4ACF-B321-0018FD13FACE}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{4A00B637-DF40-41D1-970C-11D5C61BA8A3}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{CFD60975-14BC-4A32-A7BA-02DE9F85A0CB}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{326DBE10-8958-441E-9C17-D201FEED153C}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{9EB4F62E-F4DD-4319-BA5C-CC291452FDEA}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{79490173-86EF-447A-B428-43CAA542A248}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{7FB7765A-3E10-42A4-86CA-477573F5719D}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{C4BF8FEB-8BB4-4D1E-BBB2-9E8063DDDA17}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{09023610-4786-4D2F-97B9-04EDB1AD7D53}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{9E832433-48E4-4DF6-9744-9AC4905BB038}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{CCC2FFB2-D9BE-40D6-81B2-2B82BA17F99F}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{77CFD821-B502-4783-AC5C-AFA5894DCB23}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{3437DFCA-26C4-4C4E-B127-E1E9D240FA66}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{F6581E0E-3CD8-4386-9038-166F939C9539}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{AC2BA809-074A-4058-B835-A0AA4F9CE053}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{DE4F9389-C314-43C6-B2D9-02CA0CFE1D18}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{A299ED77-9EB8-43F3-B7AA-5519B6E82B2D}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{0B846131-FA05-4EF7-8245-BD6EDB13B488}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{1703C923-F5A9-46B3-B7F9-9C93B0671E10}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{665DAFBB-5C3A-4B1B-88E4-FA3C06D9904A}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{4E2E6D16-7195-406F-885D-7328AD228F48}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{2475A4F7-DF2A-4D97-9E87-F170940116A7}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -2639,7 +2639,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80E4D4B8-26FE-4218-A686-31BBCDC46137}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BAF1E8A5-8150-40F3-B958-1F9577AAFF5A}">
   <sheetPr codeName="Sayfa3"/>
   <dimension ref="B2:F105"/>
   <sheetViews>
@@ -3897,17 +3897,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{BC0BBD92-4732-4B08-BB06-E7E956F2F313}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{62D31202-61F0-40D7-84D2-B56FF8FE9C4F}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{B4199CE1-B656-4937-BC5C-78DDC8F2709D}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{054FDAD0-F175-4AD0-AC09-967678E79BC7}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{9094CF65-00DF-48FE-8DA1-7031388DF6B2}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{B909299D-E3E1-45A2-B9D4-464FCC3BA54B}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{B3122BC0-7E89-4EEE-839A-45159FCBCA78}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{81FE36AC-6B3F-4E4A-89C9-BC24A24ABD2F}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{51FBA262-F812-4919-B108-6141DD7B365A}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{5E89F902-AD56-4FD7-84EF-D8BED1A86900}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{71B139C5-1D48-4F1D-8882-B1A043811495}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{3D6C9448-70F2-43AC-93E7-51C55586DC52}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{95C97414-2129-4C98-B9B1-2EF8FD87B101}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{982F4555-ED9B-48C9-BB33-86C51FEE1F04}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{DD5640B7-69DA-4620-BC78-1807F852B86C}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{277E809D-2B95-449C-A0B1-587713248E7D}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{9645CF65-3D1D-411A-BC0F-0C04CEDDF381}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{B8549DE6-C252-46B3-982B-F4E1F82E8582}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{532D6FDF-3E4C-4E80-9552-9A70D7234407}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{45660892-A680-4D7E-B46F-821E8FFE14FE}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{50190F48-B4D0-42B0-9DFD-4ED32BEF4A91}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{3E301A67-785A-4005-8D2B-018C557C670F}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -3920,7 +3920,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D70A6740-2047-4343-878A-443B84B998FF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BDA2CC9-E08B-4C89-9C74-83D5741AC462}">
   <sheetPr codeName="Sayfa1"/>
   <dimension ref="B2:F105"/>
   <sheetViews>
@@ -5160,17 +5160,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{00A64356-01C8-4F8E-824C-67689DAA9C28}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{02C685F7-27C9-47BC-95D3-856C2C69ECCE}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{E3AF2016-CE2D-49A2-8C11-1784152E065F}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{478C95A1-7432-451E-BF8C-CC9083B1EA28}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{E742EC41-463E-4114-891F-0811125001D8}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{30F52035-C9D3-4614-BA80-4C65FB40F450}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{2BBAE7F9-6388-4265-B11C-C041225FB8F9}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{0BED69B1-37CA-43A9-A1FC-BDD543B43A6F}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{34E78FED-950E-4DA9-8597-24E85E37B015}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{A7549D03-3D91-4BAA-9A87-4F338DCD66F1}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{5CC1EF1B-E85D-42E9-BF98-44DC99D178BE}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{3BBCCDD1-5309-4F8D-BFBE-59893112B050}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{ACC1F7A5-B3CF-4DDD-A59D-6FE0922268E7}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{E279CC17-A514-4F26-82FF-48EDDAC37B39}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{978DB96A-0839-4920-A105-DA37490A0CC1}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{FC2380CD-9E44-4502-BCB6-E40FFC130340}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{0D4B3FB8-3B09-42B0-A5E3-A1CD04619FA0}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{EC806844-55E5-499A-95CD-9825D9376659}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{8B547C0C-7BA3-45D6-872F-D2572B96A96A}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{4358D7E2-C41A-422E-9964-96535B4F9AC3}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{428F1D9B-DA7A-414E-941F-530FD3CB196B}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{F867B4BE-B704-4B6A-BEEF-6177C27B064C}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -5183,7 +5183,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8D7BE15-40AD-4C11-B71C-A84CD09DF9B3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E6AA08B-CF2A-4680-8F6F-47FB154FFFE8}">
   <sheetPr codeName="Sayfa2"/>
   <dimension ref="B2:F105"/>
   <sheetViews>
@@ -6417,17 +6417,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{F483FF6C-61AC-4C97-B089-405A6BDE54A4}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{39BB0BEB-CACE-4A0E-B669-2C909E9E5F59}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{C52FD3F9-D2BA-4FDC-91C6-AFED1F5138B1}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{65E03036-DED2-44F1-A687-14A5A5F5B723}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{A527807A-5757-49F6-A4C5-107C52175ED4}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{50BF8E15-358A-458C-8CEF-D07CBAB4B751}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{1B15A43E-418A-4B4F-80DF-1116D2E304B0}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{5025AC10-0FB0-4BA8-908F-4C18B4B5742D}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{6BC0A9E7-0D59-44EC-BFCA-D01431657F8B}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{6B6C78F2-3E9A-442E-8D24-4AD961B60651}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{779D7291-9174-42E4-96F8-DA871E4E2C96}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{7937D6FC-2B53-4F43-B5DB-5023C0582348}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{64D81F47-A8C8-422D-9033-05B70DE99F41}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{2A0ADB2E-4AD8-46FD-A47D-9F9EB2105145}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{EE6129E7-E3A8-455C-AB47-BC48C8CC9492}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{FB782D9A-C22B-485B-B7F6-F869234DA8D7}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{BC89225F-7BB9-4FFE-B8EE-93C3BE3A0551}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{9ABD6B4E-3FD9-4C70-B5A1-16B743C235DC}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{46AD37E4-BF1B-4699-835F-3A21CAB09F04}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{E403215E-1051-4D00-BC05-E1D506E4A37F}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{53857D07-D65E-4496-A987-24E74B2EFC91}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{40CAA1F8-2709-43A1-9851-311F768E0D8E}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -6440,7 +6440,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61BA2D19-C435-46EF-89BE-E9ACB357E027}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DE933BA-7433-4842-93AF-BBEBECC7B893}">
   <dimension ref="B2:F105"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -7701,17 +7701,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{AD1B1871-E328-4DFC-8865-6C678D147252}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{E31BC95F-2C87-4831-8D43-A538960D2C63}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{109D26CE-FB8C-4A0B-85F1-041F112BC0D4}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{9CE5007A-38BB-46C7-99B5-06187C29FFA9}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{0F815C89-D705-4739-8B93-A009E91D17DC}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{2C71ADC3-0120-4A07-A345-F42E4DCA2E62}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{11BF2103-9990-4267-A2E7-83ADA77FE7B8}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{50527AE9-2306-448E-BE0A-FA1A19E350C2}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{D05E9468-2FE9-48AA-A301-0FC662DE96C0}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{AF442D05-4AF7-4644-B9E9-B3E4FDCB032B}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{C61A5ACC-9C0F-4688-A3D6-9DEA5B8C29DE}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{DF6F570A-B3A0-4A55-A95D-3F5EB4695A3C}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{B53F1404-27C3-4C65-8104-EC314742AEC9}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{FBE8BDF4-9603-47C9-8136-DA33FE777F37}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{3A7C4A69-A945-4912-8310-8E25847BE75A}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{33581F49-5ABD-42E7-B543-4D0963F5FC15}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{D22EA91C-5350-4719-A97D-F15F8B4D112B}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{FB38CAE3-22B2-4B72-84F1-C0BE82E8DD15}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{558D3486-4C72-4283-960A-8B762256E52E}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{3241073D-E031-418A-8FC7-5532BFB8CEB7}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{9A9D6F39-0424-4FEB-9A81-F8CF76C5BF33}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{879644F8-F428-41DA-A1B4-1AF9ACFF84B5}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -7724,7 +7724,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15DA1062-9F6D-4354-A8DD-D58430C25FE0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A8B9D23-9DC1-4383-BEF9-D8ADE0AE8C4B}">
   <dimension ref="B2:F105"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -8985,17 +8985,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{852B6F44-580B-4E48-8D08-D7C7B5C746C6}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{A0406FB9-3822-40B8-9681-5676B205AC67}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{7671A3B8-1617-4ADC-B423-7148A978E9EA}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{5DAC3055-6740-4C95-A690-CCDB98310A07}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{87BB6565-B1AF-4FBC-B08B-05DC314CEE3F}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{FBFA3B2F-6C98-4301-95FE-E5B03938C0D8}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{5E769E67-795C-4264-8139-F8A6B7A0B72A}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{5A0E6B2B-A8F5-4ED6-AB06-C48F5C352318}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{494E1F5E-143A-4006-9FD0-A66E67B936F3}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{32A6D6E0-7C2B-4749-AF7E-5DA0D0E7B5EE}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{73BB05FB-5D52-41D5-9643-8BB0567D1301}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{A1023A58-4ECB-4FC1-A30D-87725F6418F3}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{A61F9658-4CEE-4275-99DC-A17D31EDA469}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{F64C96FC-F54C-4783-9D2F-03062A6D2695}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{61983667-FF3B-4DEA-93E9-6AE2615A8DA2}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{766E5FD1-908B-479A-8C84-0C2AC34D878C}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{7A4E264A-D220-4415-92B9-57CBBCB71377}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{9A7994DA-757A-4CFB-99B0-2ACF626F5F35}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{C5EE243B-0E27-40B2-A981-6B66D70A54BC}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{6734FBFE-9DC7-4222-8864-6BE10B790574}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{ADF9A2A6-0036-4E87-8CCF-BCF693BE70E9}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{46F25AF1-6B31-4A90-9D8E-E960A50C1A1D}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -9008,7 +9008,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C1534F2-BFF0-420D-8BD8-7EB9EE5E98E3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D727101-7922-4CCE-9310-3D2F39CD1CDA}">
   <dimension ref="B2:F105"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -10269,17 +10269,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{7CAA3C7D-E4DB-47C9-B92D-026A1684F6FF}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{3BC709E6-356E-4D64-B8B2-E1373B4BBE97}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{ACB26C71-44FA-4D46-95DB-3F3EBC070E57}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{192BB9E6-0CFA-4C0A-9976-57DA3C7F63BA}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{AFF458E1-D2AB-462F-A198-4619B0C9FE83}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{E10AEC4B-6BC5-4260-A694-7EDC35DF82BC}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{23BE091A-2381-4C8B-A7B6-68BFB6865123}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{5DDB4652-A622-43D2-AE12-918AFF67B99B}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{098EC837-F26C-4743-BC35-7BA5723848F3}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{2E6EF0F2-682C-4627-9239-48A8579ED7D6}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{E9650C0F-9AD9-4C58-A951-C45E326947DB}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{5E712816-B8EF-4648-ADB7-C02888EE243F}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{96DC4F59-58E6-4533-8A52-60A562C647A6}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{D6C83B6F-7393-4D6A-8605-2DE74DBBDB7E}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{9B56310B-FE79-4E13-B62C-2746BB372D16}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{DDA88777-4449-4AC2-A488-0812A4F314C5}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{4F6FF409-B6B6-4711-B3C6-9B135A903EF1}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{53C293F5-854A-4A12-B27B-852D9CD15BAA}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{E150BA03-99DD-4A13-98A4-F52B5D2FB602}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{61BF0B0D-B590-4EFC-9840-390BB187E7EB}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{793D3537-EB5F-49EA-A352-CF66C3EC8057}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{6E49D7FC-6ABA-4139-9E9E-0A2DD8352C8C}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -10292,7 +10292,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA39DCD7-81D9-4C0A-90AC-79EC2D32AC3C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63432DA6-2211-4578-9273-7DC5432D9A46}">
   <dimension ref="B2:F105"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -11553,17 +11553,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{7E9D73B3-374B-4A87-93BF-7467384244A7}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{E01C0441-2877-4F89-8549-B3516DD3C941}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{52F8A423-483F-4848-BF94-51EBB4AD9C72}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{F5A24B9F-7D6F-4891-BD32-2325FD7E18A3}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{3FCC6C06-FE8B-4BC3-8D57-699C9BC5E63E}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{6FFD2893-F727-43C1-B489-0A6BB2C02312}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{0A8FAAEC-545F-40B1-864E-88E02EEF8AC1}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{04555449-9A51-403B-ABB4-3A0645BDBDBA}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{601D65D9-15EB-4C54-8595-8F85DF92DF97}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{7466884F-F711-44E3-B875-30F2D75BF0F0}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{6454DFD9-992E-4595-AFCC-837E466AF89C}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{98883BE8-F609-463B-8A62-FF4A0B2F10C6}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{B5C1DB78-59BD-4D78-99D7-B209D50EB019}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{BD868821-2B24-4A9D-ADE1-9B3B33BC4950}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{83A1CB82-81B1-47FE-AA60-73CA155AAD20}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{60652CAD-5361-432B-993A-98F5F870B456}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{6FB71CCD-CDF0-4728-B36E-EC06C48785A2}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{C2EA1C52-62B1-4CDB-BBDD-A883842C33BC}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{B8578838-0E16-41D9-9576-595F96C9A94A}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{57759DFC-7A91-4CB0-9FCC-A3F82C9B2E52}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{8EF49297-45A6-4695-9B72-6FDF32F9DD74}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{6E56BF51-C9D7-4636-8ED5-CD16B0ACA530}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -11576,7 +11576,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0D7B666-6491-4784-97FF-6A7EE1F92430}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C1EDDDC-A85A-45FE-8E99-B661EC73A054}">
   <dimension ref="B2:F105"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -12837,17 +12837,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{BFADE306-3126-4AC8-8166-F2ADA98A0ECB}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{0820F7F4-2091-428A-BFA5-02BECE7E030B}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{C957A781-2455-4EED-BA62-5FF90BEFB5AA}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{983E8E0A-EEA7-44AF-88E8-9C4378C9D2BA}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{F60BE2C4-9B00-413F-92F9-B47FBB13ACBF}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{54368AAB-136C-48F4-847A-998276A28522}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{81EC451A-B3ED-4503-BAA5-A55502DDE1A3}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{CA6D393B-553B-4211-8643-850085A3802C}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{3DF293D6-0F8F-4CA8-A668-7182124A2867}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{EBEED626-80AD-462E-A580-CFD077B4EC6E}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{F152B186-44A7-43A2-9ECC-F803936AEEBF}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{D52E7F78-48FF-4A32-BED4-14E47475CFC6}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{B1A723D7-0E3F-4E30-B4F6-73815B171529}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{9050B2F7-6AC1-4578-A9F6-0B0EFB7A2AE1}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{C3483CBD-199B-418B-8090-9F8D89DBFCCB}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{A457D299-E7E7-4EFE-81C3-FFD3D08D68BD}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{AA4F73D7-478A-46E9-BEEC-BB09F5D992AF}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{344438EC-0519-45C3-91AD-88C0106BC800}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{C0BA9CBA-096F-48AC-BCF1-15241489B690}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{4549A103-FEBA-4DE1-80CA-03C77B540618}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{01A0C129-91ED-4A51-8F76-B37143DFC51E}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{2FF0148B-66F1-4392-8C1A-4083DA65ADB4}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -12860,7 +12860,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7D340AF-2572-4AF5-954C-AAE9FF57B673}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0A05F5B-482B-46D4-95F5-C42079426F59}">
   <dimension ref="B2:F105"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -14121,17 +14121,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{7D12C68A-09D9-4FD3-8A05-2B306A853FB7}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{6097E70E-EEB3-4027-A4EE-186D9AAC4615}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{38B1C01C-870F-4CAE-8BB4-9B45C759896D}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{38C2E77C-CBCC-4296-9D83-F2DEF3FD3C73}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{72FDCDA8-06E5-4AB8-9A3A-63732952A083}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{752E046F-77B1-46F6-8322-312CBE8DD837}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{9AC377F5-9533-42A3-BD36-2481489C8F71}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{9890AC2D-5C75-4900-9CE5-938E30B48180}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{1BF92CFF-C045-47AC-B1F6-ADA7ACE8E386}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{93C6A00F-FB9A-4527-9268-88D1AEDABAF7}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{02EABCEF-EF9E-40D7-8682-FF04262A5400}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{1B5458B1-8273-46FB-95E7-8786B5B6D317}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{BAC2D0CE-8E98-45DD-B30B-BD9CF5A9DAE5}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{2CD56F86-9EBB-494F-933D-0CA1955F77FE}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{D6177BD1-2D58-488E-AD75-97CDA7E8F6E8}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{EA2DD0C3-F1CF-4376-A056-50463355F715}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{4CD42300-1D2F-4107-9C00-70B06298A684}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{5D29C84D-5904-4C73-A4A0-CF8E8AC85940}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{BC7AB980-EC4B-47D6-B1A2-ACC035FBCD4A}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{4382AB85-585A-4583-B731-DD1189EEC5D2}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{60AAC697-4E91-48C3-98D3-4206C604E031}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{46179CBA-D4C5-47F2-BD14-4933960533F3}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -14144,7 +14144,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D595FC0-D233-4422-9F15-9827FAB1AFFD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61199C7E-1E76-4821-A5B9-4F16FCE58AD1}">
   <dimension ref="B2:F105"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -15405,17 +15405,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{12FE26F9-F5AE-40BD-BDE5-4C8FE8D4D6AC}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{227A01A5-4922-426C-8334-E1B046E65667}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{3EE13BA3-C6A7-40BE-95A4-81C583A38018}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{58281D12-1106-4288-B250-3840289D4195}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{1C063398-0DBE-4896-9C1A-9CC5406F2C3E}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{57D6F57C-1B93-471D-BA34-EECA5CC9BBC7}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{D8C77A38-ED93-4A98-B82D-D958D2A99E57}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{E6353313-C424-4890-B161-33B5A4F3721A}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{43AC9934-DC57-4373-AF01-B4BF3ADCDA61}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{38281DDA-D21B-45E0-A999-83D92500512F}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{D2B746C9-AC22-42A4-8F67-B757D54CEF74}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{3917A04A-738B-4A94-B75B-B5C40A4BCE25}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{370EDC0C-4AE4-43EC-9FAF-77C86A4A4C52}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{F59405C2-3FA1-4EFE-A99B-F37CFC82E19D}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{4BB935E3-CD7C-4413-85D1-D18894E43134}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{56600935-A0FB-4D38-AB5A-51BA45EEF8E6}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{6D7FA6A3-CAEB-4271-81D4-524DF5C7BE8B}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{EDF9B7C7-D6EA-47F5-941E-6388E121D2DC}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{B71823C6-5240-479B-A697-1D8D648AA931}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{6E1A6926-3F1B-41F0-A5CA-484684A187C3}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{14172329-D110-4AF1-9DD5-C48D2D5D690A}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{FBAE805A-5C21-44D9-B0F2-8D39795D0427}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -15428,7 +15428,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C7F02CD-E440-49BE-A0AE-CB651E64CC5D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4A8BADD-FD0C-4810-84F7-454CF5935180}">
   <dimension ref="B2:F105"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -16687,17 +16687,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{5F6AD2B9-C4D4-4BB0-B00B-E17AE0BDF335}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{DFF2553E-6FA1-4523-98F6-72949294281F}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{1C4087B7-ED5B-4E7D-A461-A43815E1D8F8}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{75CC6CE0-9E3E-44B2-86C9-1CA07D1E2EBE}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{F184175E-3AB5-4E84-864A-FF097168345C}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{190D4EC2-DCC5-4B66-8C2B-DE60F3B5C885}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{88BDD866-D445-4433-901A-49EE80B04FA2}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{1FDD8D2F-1A0C-4B4E-9A01-09677BA45FD6}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{FED5E83E-3C54-40AE-AFDB-911659BDEDED}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{DCC353C6-A584-4279-9FD8-2D43938FDAD9}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{27F1F631-12B9-49B1-9E6D-C6D409F8AB32}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{AFD197EA-9978-476E-901F-29E8DCAA5BC9}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{E701C5C4-8E8F-4896-9613-F79B0DBC14BE}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{47ECB6CF-F2E3-4D31-B4D8-4B85AE47BD76}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{35B02E6E-E4CD-4E0E-9833-191896218181}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{46D7BD70-8696-432F-9052-89129493E73D}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{01E95165-C1B3-4202-B9E2-CB89FEE9A8C8}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{0B41C35D-E986-4248-9B15-68572CA39788}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{5C0D7735-ACF3-47EF-A855-13438A977A02}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{6751FD13-7497-4C6B-B803-ED07A2DD8F2C}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{BEBA8ECF-AB5F-4879-9209-E65286DB84BC}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{76BAB297-AFEC-455B-993E-B7ACFBE11222}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
